--- a/data/trans_orig/P14B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C54EE4-1439-4E98-873C-47C997656D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{182EE01A-3266-4D95-B806-26B7605291AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{33E6A825-02F1-4890-A20B-144F210F2C2D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F560399-D797-4C8E-8CCE-B673DEABA869}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="317">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -112,886 +112,883 @@
     <t>66,64%</t>
   </si>
   <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>66,41%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>34,42%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
     <t>45,23%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
   </si>
   <si>
     <t>55,79%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
   </si>
   <si>
     <t>43,98%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
   </si>
   <si>
     <t>40,17%</t>
   </si>
   <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
   </si>
   <si>
     <t>56,02%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>62,07%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
   </si>
   <si>
     <t>59,83%</t>
   </si>
   <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
+    <t>13,64%</t>
   </si>
   <si>
     <t>28,42%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>86,36%</t>
   </si>
   <si>
     <t>71,58%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
   </si>
   <si>
     <t>39,48%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>28,22%</t>
+    <t>44,96%</t>
   </si>
   <si>
     <t>38,57%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>60,52%</t>
   </si>
   <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>71,78%</t>
+    <t>55,04%</t>
   </si>
   <si>
     <t>61,43%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE85FAB0-B56A-487C-9A17-80CA7836D45B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C74952-A2A2-4204-B761-3436D428531A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2466,7 +2463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04095175-B260-49FD-A0D3-5D4FC79E33CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC31DCAF-F44A-42BD-80BB-4355F6633A70}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3529,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5045C7-6A5E-473D-8B0D-501C27A088C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CF1EC0-5123-4549-8726-60957550CF64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3725,7 +3722,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3734,13 +3731,13 @@
         <v>2802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3805,13 @@
         <v>17003</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3823,13 +3820,13 @@
         <v>6530</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3838,13 +3835,13 @@
         <v>23533</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3856,13 @@
         <v>12492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3874,13 +3871,13 @@
         <v>12789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -3889,13 +3886,13 @@
         <v>25281</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3960,13 @@
         <v>15373</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3978,13 +3975,13 @@
         <v>22654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3993,13 +3990,13 @@
         <v>38027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4011,13 @@
         <v>29286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4029,13 +4026,13 @@
         <v>18711</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -4044,13 +4041,13 @@
         <v>47997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4115,13 @@
         <v>10119</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4133,13 +4130,13 @@
         <v>14880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4148,13 +4145,13 @@
         <v>24999</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4166,13 @@
         <v>12890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -4184,13 +4181,13 @@
         <v>24345</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -4199,13 +4196,13 @@
         <v>37235</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4270,13 @@
         <v>8821</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4288,13 +4285,13 @@
         <v>23937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4342,10 +4339,10 @@
         <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4354,13 +4351,13 @@
         <v>82498</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4425,13 @@
         <v>51316</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -4443,13 +4440,13 @@
         <v>71631</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>157</v>
@@ -4458,13 +4455,13 @@
         <v>122947</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4476,13 @@
         <v>78677</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -4494,13 +4491,13 @@
         <v>117135</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -4509,13 +4506,13 @@
         <v>195812</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B09-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{182EE01A-3266-4D95-B806-26B7605291AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1232396E-4B4E-4BFA-A8A2-8181FCA61E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2F560399-D797-4C8E-8CCE-B673DEABA869}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0309E726-1330-426A-BD37-ADEEE5ED86F3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="315">
   <si>
     <t>Población cuyo asma le limita en 2012 (Tasa respuesta: 2,32%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -106,175 +106,175 @@
     <t>25,39%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
   </si>
   <si>
     <t>38,64%</t>
   </si>
   <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>23,15%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>72,88%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>54,09%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>76,85%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
   <si>
     <t>45,91%</t>
   </si>
   <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>40,81%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>38,33%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>39,18%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
   </si>
   <si>
     <t>59,19%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>61,67%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>60,82%</t>
   </si>
   <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -283,415 +283,409 @@
     <t>41,42%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>53,65%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
   </si>
   <si>
     <t>46,35%</t>
   </si>
   <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>41,93%</t>
   </si>
   <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
   </si>
   <si>
     <t>51,43%</t>
   </si>
   <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>58,07%</t>
   </si>
   <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
   </si>
   <si>
     <t>48,57%</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo asma le limita en 2015 (Tasa respuesta: 3,29%)</t>
+    <t>Población cuyo asma le limita en 2016 (Tasa respuesta: 3,29%)</t>
   </si>
   <si>
     <t>72,12%</t>
   </si>
   <si>
+    <t>20,44%</t>
+  </si>
+  <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>24,71%</t>
+    <t>39,53%</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>37,27%</t>
+    <t>41,73%</t>
   </si>
   <si>
     <t>27,88%</t>
   </si>
   <si>
+    <t>79,56%</t>
+  </si>
+  <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>75,29%</t>
+    <t>60,47%</t>
   </si>
   <si>
     <t>22,31%</t>
   </si>
   <si>
-    <t>62,73%</t>
+    <t>58,27%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
   </si>
   <si>
     <t>70,04%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>55,74%</t>
   </si>
   <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
   </si>
   <si>
     <t>29,96%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
   </si>
   <si>
     <t>44,26%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>69,28%</t>
   </si>
   <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
   </si>
   <si>
     <t>76,69%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>23,31%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>64,97%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>54,62%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>35,03%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>39,03%</t>
   </si>
   <si>
     <t>59,99%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>60,97%</t>
   </si>
   <si>
     <t>40,01%</t>
   </si>
   <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
   </si>
   <si>
     <t>Población cuyo asma le limita en 2023 (Tasa respuesta: 4,4%)</t>
@@ -1400,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C74952-A2A2-4204-B761-3436D428531A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70D81B64-ACEA-46B4-864B-4064DF210DF4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2463,7 +2457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC31DCAF-F44A-42BD-80BB-4355F6633A70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B60C7DB-D4E0-4CD5-9A2C-52122817FFB8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2590,7 +2584,7 @@
         <v>118</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
@@ -2602,10 +2596,10 @@
         <v>4096</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -2617,10 +2611,10 @@
         <v>6760</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>11</v>
@@ -2638,13 +2632,13 @@
         <v>1030</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2653,13 +2647,13 @@
         <v>912</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2668,13 +2662,13 @@
         <v>1942</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,13 +2736,13 @@
         <v>7378</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2757,13 +2751,13 @@
         <v>12718</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -2772,13 +2766,13 @@
         <v>20097</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2787,13 @@
         <v>10518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2808,13 +2802,13 @@
         <v>5440</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -2823,13 +2817,13 @@
         <v>15957</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,13 +2891,13 @@
         <v>15961</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2912,13 +2906,13 @@
         <v>27867</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -2927,13 +2921,13 @@
         <v>43827</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2942,13 @@
         <v>7077</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -2963,13 +2957,13 @@
         <v>18065</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -2978,13 +2972,13 @@
         <v>25143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3046,13 @@
         <v>3535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3067,13 +3061,13 @@
         <v>23677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -3082,13 +3076,13 @@
         <v>27212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3097,13 @@
         <v>7935</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3118,13 +3112,13 @@
         <v>7197</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -3133,13 +3127,13 @@
         <v>15132</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3201,13 @@
         <v>13653</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -3222,13 +3216,13 @@
         <v>16324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -3237,13 +3231,13 @@
         <v>29977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3252,13 @@
         <v>16433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3368,7 +3362,7 @@
         <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -3377,13 +3371,13 @@
         <v>84682</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -3392,13 +3386,13 @@
         <v>127874</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3407,13 @@
         <v>42993</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>55</v>
@@ -3428,13 +3422,13 @@
         <v>56476</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3443,13 +3437,13 @@
         <v>99469</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CF1EC0-5123-4549-8726-60957550CF64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA65434D-E7E4-4B94-B407-97D6BE81FD91}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3656,7 +3650,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3665,10 +3659,10 @@
         <v>3630</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>11</v>
@@ -3680,13 +3674,13 @@
         <v>3630</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3698,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
@@ -3716,13 +3710,13 @@
         <v>740</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3731,13 +3725,13 @@
         <v>2802</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3799,13 @@
         <v>17003</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3820,13 +3814,13 @@
         <v>6530</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M7" s="7">
         <v>30</v>
@@ -3835,13 +3829,13 @@
         <v>23533</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3850,13 @@
         <v>12492</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3871,13 +3865,13 @@
         <v>12789</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M8" s="7">
         <v>35</v>
@@ -3886,13 +3880,13 @@
         <v>25281</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3954,13 @@
         <v>15373</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -3975,13 +3969,13 @@
         <v>22654</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3990,13 +3984,13 @@
         <v>38027</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4005,13 @@
         <v>29286</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -4026,13 +4020,13 @@
         <v>18711</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>52</v>
@@ -4041,13 +4035,13 @@
         <v>47997</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4109,13 @@
         <v>10119</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4130,13 +4124,13 @@
         <v>14880</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -4145,13 +4139,13 @@
         <v>24999</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4160,13 @@
         <v>12890</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -4181,13 +4175,13 @@
         <v>24345</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>50</v>
@@ -4196,13 +4190,13 @@
         <v>37235</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>8821</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4285,13 +4279,13 @@
         <v>23937</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4300,13 +4294,13 @@
         <v>32758</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4315,13 @@
         <v>21947</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4336,13 +4330,13 @@
         <v>60551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>87</v>
@@ -4351,13 +4345,13 @@
         <v>82498</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4419,13 @@
         <v>51316</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H19" s="7">
         <v>109</v>
@@ -4440,13 +4434,13 @@
         <v>71631</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>157</v>
@@ -4455,13 +4449,13 @@
         <v>122947</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4470,13 @@
         <v>78677</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>157</v>
@@ -4491,13 +4485,13 @@
         <v>117135</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -4506,13 +4500,13 @@
         <v>195812</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
